--- a/table_Info_Sc/заводСозиданияПодсчет.xlsx
+++ b/table_Info_Sc/заводСозиданияПодсчет.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\autoStarCombats\table_Info_Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DBBEFF-6B7C-4890-8B86-CDF0F694DABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01174360-93F7-4A32-882A-9C61D9AA6D3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1935" windowWidth="24465" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,11 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F2" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G2" s="21">
         <f>F2-C2</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2" s="17">
         <f>IF(0&gt;G2,11*G2,0)</f>
@@ -1174,21 +1174,21 @@
         <v>8</v>
       </c>
       <c r="F4" s="26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G4" s="22">
         <f>F4-C14-C4</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="17">
         <f>IF(0&gt;G4,50*G4,0)</f>
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16">
         <f>IF(0&gt;G4,300*G4,0)</f>
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -1428,7 +1428,7 @@
       <c r="R9" s="32"/>
       <c r="S9" s="24">
         <f>SUM(0 - I18)</f>
-        <v>549</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1563,27 +1563,27 @@
         <v>12</v>
       </c>
       <c r="F13" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13" s="22">
         <f>F13-C19-C10</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="17">
         <f>IF(0&gt;G13,72*G13,0)</f>
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16">
         <f>IF(0&gt;G13,250*G13,0)</f>
-        <v>-750</v>
+        <v>0</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16">
         <f>IF(0&gt;G13,100*G13,0)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="I18" s="13">
         <f>SUM(I2,I3,I4,I5,I6,I7,I8,I9,I10,I11,I12,I13,I14,I15,I16,I17)</f>
-        <v>-549</v>
+        <v>-183</v>
       </c>
       <c r="J18" s="13">
         <f>SUM(J2,J8,J9,J10,J11,J12,J15)</f>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="L18" s="13">
         <f>SUM(L4,L12,L14,L15)</f>
-        <v>-1000</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="13">
         <f>SUM(M5,M9,M11,M12,M13,M15,M16,M17)</f>
-        <v>-1150</v>
+        <v>-400</v>
       </c>
       <c r="N18" s="13">
         <f>SUM(N6,N14,N15,N16)</f>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="O18" s="13">
         <f>SUM(O7,O11,O13,O14,O15,O16,O17)</f>
-        <v>-400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
